--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -10,6 +10,12 @@
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="adjusted3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="adjusted4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="adjusted5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="adjusted6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="adjusted7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1521,4 +1527,2590 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01447883819254694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9796445789548901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006127273473205598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9599882247915408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05013238617594673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9494310467393855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1837107777623762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9714318683884539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1381389448659502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8581223343375272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3369326505933539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9825035308492909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2694547670378385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7274196560540005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4427264869854463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937587120500853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4250002078531084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5666668769936601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4874986332430716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.977046360984659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6057479357539278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3862587341913956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4837101473075963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9840773846259568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7492240144805986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2420267170827362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4146191106315307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9637315694580342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8824533477904921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1107327273414206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3040872673269749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9759237802318909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.960232133256255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03971731814383723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1601044287309006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9748900712968931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9820552308774912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01759488173675538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01283990189033772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9650717825182801</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519688006967815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04803108986764825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1698379323058297</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662414295937818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620690346708444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379310717682178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3237025842025201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.97175472713623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7351021562219855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.264897620052479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4190885668640761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618163829440505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750107083344544</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424989063485869</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4798443797775621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9717542763901136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4020076469829965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.597991960802552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4737149455094483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9680162326153257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526688755888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473308541061301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4168084469869736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9698035291497136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.124382520909913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8756173796534178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3091565863447239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.973332396819668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04395104449197721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560489207019879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1579050479004334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965829241392248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01569307329204831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843499412692521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01028266836270173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9694025459634443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01447883819254694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9796445789548901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006127273473205598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9599882247915408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05013238617594673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9494310467393855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1837107777623762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9714318683884539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1381389448659502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8581223343375272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3369326505933539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9825035308492909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2694547670378385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7274196560540005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4427264869854463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937587120500853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4250002078531084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5666668769936601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4874986332430716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.977046360984659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6057479357539278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3862587341913956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4837101473075963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9840773846259568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7492240144805986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2420267170827362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4146191106315307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9637315694580342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8824533477904921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1107327273414206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3040872673269749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9759237802318909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.960232133256255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03971731814383723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1601044287309006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9748900712968931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9820552308774912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01759488173675538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01283990189033772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9650717825182801</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519688006967815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04803108986764825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1698379323058297</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662414295937818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620690346708444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379310717682178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3237025842025201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.97175472713623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7351021562219855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.264897620052479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4190885668640761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618163829440505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750107083344544</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424989063485869</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4798443797775621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9717542763901136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4020076469829965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.597991960802552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4737149455094483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9680162326153257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526688755888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473308541061301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4168084469869736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9698035291497136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.124382520909913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8756173796534178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3091565863447239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.973332396819668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04395104449197721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560489207019879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1579050479004334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965829241392248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01569307329204831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843499412692521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01028266836270173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9694025459634443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01447883819254694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9796445789548901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006127273473205598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9599882247915408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05013238617594673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9494310467393855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1837107777623762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9714318683884539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1381389448659502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8581223343375272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3369326505933539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9825035308492909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2694547670378385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7274196560540005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4427264869854463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937587120500853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4250002078531084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5666668769936601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4874986332430716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.977046360984659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6057479357539278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3862587341913956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4837101473075963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9840773846259568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7492240144805986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2420267170827362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4146191106315307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9637315694580342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8824533477904921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1107327273414206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3040872673269749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9759237802318909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.960232133256255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03971731814383723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1601044287309006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9748900712968931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9820552308774912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01759488173675538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01283990189033772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9650717825182801</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519688006967815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04803108986764825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1698379323058297</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662414295937818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620690346708444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379310717682178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3237025842025201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.97175472713623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7351021562219855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.264897620052479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4190885668640761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618163829440505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750107083344544</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424989063485869</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4798443797775621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9717542763901136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4020076469829965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.597991960802552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4737149455094483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9680162326153257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526688755888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473308541061301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4168084469869736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9698035291497136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.124382520909913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8756173796534178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3091565863447239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.973332396819668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04395104449197721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560489207019879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1579050479004334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965829241392248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01569307329204831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843499412692521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01028266836270173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9694025459634443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01447883819254694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9796445789548901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006127273473205598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9599882247915408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05013238617594673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9494310467393855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1837107777623762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9714318683884539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1381389448659502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8581223343375272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3369326505933539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9825035308492909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2694547670378385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7274196560540005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4427264869854463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937587120500853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4250002078531084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5666668769936601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4874986332430716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.977046360984659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6057479357539278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3862587341913956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4837101473075963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9840773846259568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7492240144805986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2420267170827362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4146191106315307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9637315694580342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8824533477904921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1107327273414206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3040872673269749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9759237802318909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.960232133256255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03971731814383723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1601044287309006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9748900712968931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9820552308774912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01759488173675538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01283990189033772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9650717825182801</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519688006967815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04803108986764825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1698379323058297</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662414295937818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620690346708444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379310717682178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3237025842025201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.97175472713623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7351021562219855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.264897620052479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4190885668640761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618163829440505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750107083344544</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424989063485869</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4798443797775621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9717542763901136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4020076469829965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.597991960802552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4737149455094483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9680162326153257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526688755888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473308541061301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4168084469869736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9698035291497136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.124382520909913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8756173796534178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3091565863447239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.973332396819668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04395104449197721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560489207019879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1579050479004334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965829241392248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01569307329204831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843499412692521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01028266836270173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9694025459634443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01447883819254694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9796445789548901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.006127273473205598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9599882247915408</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05013238617594673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9494310467393855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1837107777623762</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9714318683884539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1381389448659502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8581223343375272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3369326505933539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9825035308492909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2694547670378385</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7274196560540005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4427264869854463</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9937587120500853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4250002078531084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5666668769936601</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4874986332430716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.977046360984659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6057479357539278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3862587341913956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4837101473075963</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9840773846259568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7492240144805986</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2420267170827362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4146191106315307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9637315694580342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8824533477904921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1107327273414206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3040872673269749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9759237802318909</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.960232133256255</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03971731814383723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1601044287309006</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9748900712968931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9820552308774912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01759488173675538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01283990189033772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9650717825182801</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519688006967815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04803108986764825</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1698379323058297</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662414295937818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620690346708444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379310717682178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3237025842025201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.97175472713623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7351021562219855</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.264897620052479</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.4190885668640761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618163829440505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750107083344544</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.424989063485869</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4798443797775621</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9717542763901136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4020076469829965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.597991960802552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4737149455094483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9680162326153257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526688755888427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473308541061301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4168084469869736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9698035291497136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.124382520909913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8756173796534178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3091565863447239</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.973332396819668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04395104449197721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560489207019879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1579050479004334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965829241392248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01569307329204831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843499412692521</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01028266836270173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9694025459634443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3195222924836676</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3206393792888301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.002051869727021977</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2049125272834981</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9034675159553678</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09643184570695633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2948625125212926</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9994404558337519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8588668960046663</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1411171831749043</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3480980188172541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9999108658489044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8058766824048178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1941015347694477</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.395450609743124</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9998750025360679</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7510161557407167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2489770661404544</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4324101485835534</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9999719188435741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6850301308743648</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3149865167659807</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4645401970958261</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.000077975385773</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6306560010342303</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3693515910191658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4826449925477784</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.000039967091766</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5644192654648931</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4355730194666206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4519233245800155</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9167623451141066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.520685076297183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4793010926305875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3437503496099932</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7371710917894634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5090342818256079</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4909472923086059</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2478264359250978</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6229810285855374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5252165935491433</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4747619387139132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1734093831417849</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5613929969139881</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5799888083689571</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4199884367334678</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1022501851016595</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5336875055297121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.68016800799027</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3198122584092003</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05502967078391423</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5709649290554171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8695443779701701</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1304459136266121</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01751880995197613</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7737373790456785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9995067442512144</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0004888638479321785</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0219493592679799</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9999775195360741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9969315675933181</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003067119792011062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05531334385815304</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.00000108970543</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9883421651840305</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01158910433433141</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1064505134405869</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9996179664434587</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9699762242694037</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02983870190741427</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1691588664197207</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9989736679562577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2923487947039204</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3093277688880985</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.007140828154850055</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1812534692235981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -16,6 +16,7 @@
     <sheet name="adjusted5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="adjusted6" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="adjusted7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rho" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,6 +730,437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace_sq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01740544426373977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9825945467348716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.003085342615102135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9658140314412309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05033371666978453</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9496659873001346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1835881672030711</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9718082007424992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1399931911095196</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8600067895532182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3350744138643648</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.983759497287755</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2704532149268831</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7295475547190609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4433701993202432</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9985388433513923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4291608892232774</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5708390444083918</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4833663521194739</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9773223441825746</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6097607456828397</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3902392247587773</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.479829167203665</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9845668789147497</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.753628888887208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2463711759298113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4102873272298778</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9653266402652793</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8858979724518178</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.114102346096456</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3007003160677003</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9786759231453867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9602931292450565</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0397068449576482</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1601799746889957</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9750547761944881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.982273357351477</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01772661936939805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01315406549478772</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9655212404748923</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9519487132597725</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04805128938414006</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.169831850366278</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9662009938860826</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8620490949993135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1379509111830151</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.323692642435192</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9717129496187137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7350963442737286</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2649036552338432</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4190852155444523</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9618054176967311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5750090264247757</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4249909747538475</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4798413337025017</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.971748120150985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.402011643665746</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5979883629923279</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4737040360781434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9679944715105249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2526874659623621</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7473125403944333</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4167847893150157</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9697461096939854</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1244082937189699</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8755917157896242</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3091404604805468</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9732739249177326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04396000833269664</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9560399951553169</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1579034642402508</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9658119627073334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01568535574023989</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9843146263341712</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.01022692347884475</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9693304939277613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -781,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01740544426373977</v>
+        <v>0.01740429624670976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9825945467348716</v>
+        <v>0.9825953982536914</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.003085342615102135</v>
+        <v>-0.003085372867514268</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9658140314412309</v>
+        <v>0.9658156652486368</v>
       </c>
     </row>
     <row r="3">
@@ -801,19 +801,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05033371666978453</v>
+        <v>0.05032519608395217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9496659873001346</v>
+        <v>0.9496728746532425</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1835881672030711</v>
+        <v>-0.1835946444416598</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9718082007424992</v>
+        <v>0.9718251811483604</v>
       </c>
     </row>
     <row r="4">
@@ -821,19 +821,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1399931911095196</v>
+        <v>0.1400048182942506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8600067895532182</v>
+        <v>0.8599950626017239</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3350744138643648</v>
+        <v>-0.3350675891713663</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.983759497287755</v>
+        <v>0.9837334354711722</v>
       </c>
     </row>
     <row r="5">
@@ -841,19 +841,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2704532149268831</v>
+        <v>0.2704407013508555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7295475547190609</v>
+        <v>0.7295591527183946</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4433701993202432</v>
+        <v>-0.4433952167316642</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985388433513923</v>
+        <v>0.9985933667033632</v>
       </c>
     </row>
     <row r="6">
@@ -861,19 +861,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4291608892232774</v>
+        <v>0.4291638565449588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5708390444083918</v>
+        <v>0.5708360839212064</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4833663521194739</v>
+        <v>-0.4833523051660236</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9773223441825746</v>
+        <v>0.9772943522896582</v>
       </c>
     </row>
     <row r="7">
@@ -881,19 +881,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6097607456828397</v>
+        <v>0.6097574999967134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3902392247587773</v>
+        <v>0.3902424782592136</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.479829167203665</v>
+        <v>-0.479821149046909</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9845668789147497</v>
+        <v>0.9845500707855268</v>
       </c>
     </row>
     <row r="8">
@@ -901,19 +901,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.753628888887208</v>
+        <v>0.7536521401848159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2463711759298113</v>
+        <v>0.2463472037549514</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4102873272298778</v>
+        <v>-0.4103326238735707</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9653266402652793</v>
+        <v>0.9654242176329754</v>
       </c>
     </row>
     <row r="9">
@@ -921,19 +921,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8858979724518178</v>
+        <v>0.8858734298380309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.114102346096456</v>
+        <v>0.1141254711684611</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3007003160677003</v>
+        <v>-0.300692085441897</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9786759231453867</v>
+        <v>0.978627817357214</v>
       </c>
     </row>
     <row r="10">
@@ -941,19 +941,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9602931292450565</v>
+        <v>0.9602869260518345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0397068449576482</v>
+        <v>0.03971213130906053</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1601799746889957</v>
+        <v>-0.1601885027968318</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9750547761944881</v>
+        <v>0.9750487465757707</v>
       </c>
     </row>
     <row r="11">
@@ -961,19 +961,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.982273357351477</v>
+        <v>0.9822644542389438</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01772661936939805</v>
+        <v>0.0177336634090481</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01315406549478772</v>
+        <v>0.0131542456418529</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9655212404748923</v>
+        <v>0.965504009236048</v>
       </c>
     </row>
     <row r="12">
@@ -981,19 +981,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9519487132597725</v>
+        <v>0.9519914634655896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04805128938414006</v>
+        <v>0.04800843889047344</v>
       </c>
       <c r="D12" t="n">
-        <v>0.169831850366278</v>
+        <v>0.1698484141434813</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9662009938860826</v>
+        <v>0.9662895242901663</v>
       </c>
     </row>
     <row r="13">
@@ -1001,19 +1001,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8620490949993135</v>
+        <v>0.8620952629215608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1379509111830151</v>
+        <v>0.1379044801340656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.323692642435192</v>
+        <v>0.3237305225436961</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9717129496187137</v>
+        <v>0.9718287904456709</v>
       </c>
     </row>
     <row r="14">
@@ -1021,19 +1021,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7350963442737286</v>
+        <v>0.735112848286447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2649036552338432</v>
+        <v>0.2648870109687819</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4190852155444523</v>
+        <v>0.4191143332613964</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9618054176967311</v>
+        <v>0.9618696769860781</v>
       </c>
     </row>
     <row r="15">
@@ -1041,19 +1041,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5750090264247757</v>
+        <v>0.5750117546506786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4249909747538475</v>
+        <v>0.4249882342482024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4798413337025017</v>
+        <v>0.479859093068324</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.971748120150985</v>
+        <v>0.971783015636566</v>
       </c>
     </row>
     <row r="16">
@@ -1061,19 +1061,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.402011643665746</v>
+        <v>0.4020069514122085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5979883629923279</v>
+        <v>0.597993040688802</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4737040360781434</v>
+        <v>0.473727622921797</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9679944715105249</v>
+        <v>0.9680409871342497</v>
       </c>
     </row>
     <row r="17">
@@ -1081,19 +1081,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2526874659623621</v>
+        <v>0.2526658265883993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7473125403944333</v>
+        <v>0.7473341603559058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4167847893150157</v>
+        <v>0.4168203495864682</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9697461096939854</v>
+        <v>0.9698267748192371</v>
       </c>
     </row>
     <row r="18">
@@ -1101,19 +1101,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1244082937189699</v>
+        <v>0.1243819311489774</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8755917157896242</v>
+        <v>0.8756180549232931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3091404604805468</v>
+        <v>0.3091608315711986</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9732739249177326</v>
+        <v>0.9733386824595902</v>
       </c>
     </row>
     <row r="19">
@@ -1121,19 +1121,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04396000833269664</v>
+        <v>0.04392513823754257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9560399951553169</v>
+        <v>0.9560747180314311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1579034642402508</v>
+        <v>0.1579156127959115</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9658119627073334</v>
+        <v>0.9658829657574842</v>
       </c>
     </row>
     <row r="20">
@@ -1141,19 +1141,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01568535574023989</v>
+        <v>0.01563624550599963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9843146263341712</v>
+        <v>0.9843635070979341</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01022692347884475</v>
+        <v>-0.01022778747730254</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9693304939277613</v>
+        <v>0.9694252215530301</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01740432221243669</v>
+        <v>0.01740432221242461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9825956777875632</v>
+        <v>0.9825956777875754</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0030853736780815</v>
+        <v>-0.003085373678081569</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9658162154999418</v>
+        <v>0.9658162154999653</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05030115647780751</v>
+        <v>0.05030115647779944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9496988435221925</v>
+        <v>0.9496988435222008</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1836048532723744</v>
+        <v>-0.1836048532723778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9718795840207349</v>
+        <v>0.9718795840207525</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1400028224038761</v>
+        <v>0.1400028224038125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.859997177596124</v>
+        <v>0.8599971775961874</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3350695022865254</v>
+        <v>-0.3350695022865846</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9837390784794303</v>
+        <v>0.9837390784796008</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270444687595353</v>
+        <v>0.2704446875953596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7295553124046469</v>
+        <v>0.7295553124046407</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4433876582062357</v>
+        <v>-0.4433876582062232</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985765138056093</v>
+        <v>0.9985765138055818</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4291573196279133</v>
+        <v>0.4291573196279134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.570842680372087</v>
+        <v>0.5708426803720869</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4833971131271826</v>
+        <v>-0.4833971131271819</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9773829086839919</v>
+        <v>0.9773829086839905</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6097650885619272</v>
+        <v>0.609765088561927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3902349114380724</v>
+        <v>0.390234911438073</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4798542760504168</v>
+        <v>-0.4798542760504145</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9846170018217544</v>
+        <v>0.9846170018217502</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7536405590092764</v>
+        <v>0.7536405590092786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2463594409907233</v>
+        <v>0.2463594409907213</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4103133583973096</v>
+        <v>-0.4103133583973131</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9653811705076344</v>
+        <v>0.9653811705076425</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8858734339069767</v>
+        <v>0.8858734339069797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1141265660930239</v>
+        <v>0.1141265660930204</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3006916604175782</v>
+        <v>-0.3006916604175806</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9786275632796843</v>
+        <v>0.9786275632796917</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9602727605253678</v>
+        <v>0.9602727605253757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03972723947463231</v>
+        <v>0.03972723947462431</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1601834089044875</v>
+        <v>-0.16018340890449</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9750194771398096</v>
+        <v>0.9750194771398257</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9822863401904731</v>
+        <v>0.9822863401905042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01771365980952727</v>
+        <v>0.01771365980949617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01315481693045207</v>
+        <v>0.01315481693045291</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965546326285589</v>
+        <v>0.965546326285649</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9519701888906035</v>
+        <v>0.9519701888906094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04802981110939698</v>
+        <v>0.0480298111093906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1698404012824906</v>
+        <v>0.1698404012824929</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9662456271072104</v>
+        <v>0.9662456271072226</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8620685607863406</v>
+        <v>0.8620685607863402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1379314392136595</v>
+        <v>0.1379314392136601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3237065347030261</v>
+        <v>0.3237065347030256</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9717591266386671</v>
+        <v>0.9717591266386658</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7350875470870271</v>
+        <v>0.7350875470870663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2649124529129733</v>
+        <v>0.2649124529129338</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4190691056768732</v>
+        <v>0.4190691056769434</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9617701402564193</v>
+        <v>0.9617701402565735</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5750032625554001</v>
+        <v>0.5750032625552861</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4249967374445999</v>
+        <v>0.4249967374447139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4798047326238531</v>
+        <v>0.4798047326231232</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9716761416844029</v>
+        <v>0.971676141682968</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4020173068542555</v>
+        <v>0.4020173068542751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5979826931457446</v>
+        <v>0.5979826931457252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4736775807174906</v>
+        <v>0.4736775807173962</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9679421172609359</v>
+        <v>0.9679421172607497</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25270197107274</v>
+        <v>0.2527019710726249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7472980289272598</v>
+        <v>0.747298028927375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4167594480302916</v>
+        <v>0.4167594480304855</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9696895052676422</v>
+        <v>0.9696895052680794</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1244260885186802</v>
+        <v>0.1244260885188483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.87557391148132</v>
+        <v>0.8755739114811519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3091244925940086</v>
+        <v>0.3091244925938702</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9732274298137633</v>
+        <v>0.9732274298133398</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04400734791484107</v>
+        <v>0.04400734791484287</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9559926520851592</v>
+        <v>0.9559926520851568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1578871726295855</v>
+        <v>0.1578871726295848</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9657153160732431</v>
+        <v>0.9657153160732384</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01572999198302271</v>
+        <v>0.01572999198302733</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9842700080169771</v>
+        <v>0.9842700080169727</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01022581054545699</v>
+        <v>-0.01022581054545691</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9692440157321491</v>
+        <v>0.9692440157321409</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="false" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="true"/>
   </bookViews>
   <sheets>
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,34 @@
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>Jxx</t>
+  </si>
+  <si>
+    <t>Jyy</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>trace_sq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30,7 +54,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -56,20 +80,52 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -357,9 +413,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -721,14 +777,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -1090,14 +1146,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1521,14 +1577,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1952,14 +2008,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -2007,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01740432221243669</v>
+        <v>0.01740432221242461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9825956777875632</v>
+        <v>0.9825956777875754</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0030853736780815</v>
+        <v>-0.003085373678081569</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9658162154999418</v>
+        <v>0.9658162154999653</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2083,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05030115647780751</v>
+        <v>0.05030115647779944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9496988435221925</v>
+        <v>0.9496988435222008</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1836048532723744</v>
+        <v>-0.1836048532723778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9718795840207349</v>
+        <v>0.9718795840207525</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2103,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1400028224038761</v>
+        <v>0.1400028224038125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.859997177596124</v>
+        <v>0.8599971775961874</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3350695022865254</v>
+        <v>-0.3350695022865846</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9837390784794303</v>
+        <v>0.9837390784796008</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2123,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270444687595353</v>
+        <v>0.2704446875953596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7295553124046469</v>
+        <v>0.7295553124046407</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4433876582062357</v>
+        <v>-0.4433876582062232</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985765138056093</v>
+        <v>0.9985765138055818</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2143,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4291573196279133</v>
+        <v>0.4291573196279134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.570842680372087</v>
+        <v>0.5708426803720869</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4833971131271826</v>
+        <v>-0.4833971131271819</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9773829086839919</v>
+        <v>0.9773829086839905</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2163,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6097650885619272</v>
+        <v>0.609765088561927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3902349114380724</v>
+        <v>0.390234911438073</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4798542760504168</v>
+        <v>-0.4798542760504145</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9846170018217544</v>
+        <v>0.9846170018217502</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2183,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7536405590092764</v>
+        <v>0.7536405590092786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2463594409907233</v>
+        <v>0.2463594409907213</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4103133583973096</v>
+        <v>-0.4103133583973131</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9653811705076344</v>
+        <v>0.9653811705076425</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2203,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8858734339069767</v>
+        <v>0.8858734339069797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1141265660930239</v>
+        <v>0.1141265660930204</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3006916604175782</v>
+        <v>-0.3006916604175806</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9786275632796843</v>
+        <v>0.9786275632796917</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2223,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9602727605253678</v>
+        <v>0.9602727605253757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03972723947463231</v>
+        <v>0.03972723947462431</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1601834089044875</v>
+        <v>-0.16018340890449</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9750194771398096</v>
+        <v>0.9750194771398257</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2243,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9822863401904731</v>
+        <v>0.9822863401905042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01771365980952727</v>
+        <v>0.01771365980949617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01315481693045207</v>
+        <v>0.01315481693045291</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.965546326285589</v>
+        <v>0.965546326285649</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2263,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9519701888906035</v>
+        <v>0.9519701888906094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04802981110939698</v>
+        <v>0.0480298111093906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1698404012824906</v>
+        <v>0.1698404012824929</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9662456271072104</v>
+        <v>0.9662456271072226</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2283,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8620685607863406</v>
+        <v>0.8620685607863402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1379314392136595</v>
+        <v>0.1379314392136601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3237065347030261</v>
+        <v>0.3237065347030256</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9717591266386671</v>
+        <v>0.9717591266386658</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2303,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7350875470870271</v>
+        <v>0.7350875470870663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2649124529129733</v>
+        <v>0.2649124529129338</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4190691056768732</v>
+        <v>0.4190691056769434</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9617701402564193</v>
+        <v>0.9617701402565735</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2323,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5750032625554001</v>
+        <v>0.5750032625552861</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4249967374445999</v>
+        <v>0.4249967374447139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4798047326238531</v>
+        <v>0.4798047326231232</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9716761416844029</v>
+        <v>0.971676141682968</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2343,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4020173068542555</v>
+        <v>0.4020173068542751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5979826931457446</v>
+        <v>0.5979826931457252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4736775807174906</v>
+        <v>0.4736775807173962</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9679421172609359</v>
+        <v>0.9679421172607497</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2363,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25270197107274</v>
+        <v>0.2527019710726249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7472980289272598</v>
+        <v>0.747298028927375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4167594480302916</v>
+        <v>0.4167594480304855</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9696895052676422</v>
+        <v>0.9696895052680794</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2383,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1244260885186802</v>
+        <v>0.1244260885188483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.87557391148132</v>
+        <v>0.8755739114811519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3091244925940086</v>
+        <v>0.3091244925938702</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9732274298137633</v>
+        <v>0.9732274298133398</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2403,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04400734791484107</v>
+        <v>0.04400734791484287</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9559926520851592</v>
+        <v>0.9559926520851568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1578871726295855</v>
+        <v>0.1578871726295848</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9657153160732431</v>
+        <v>0.9657153160732384</v>
       </c>
     </row>
     <row r="20">
@@ -2367,22 +2423,439 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01572999198302271</v>
+        <v>0.01572999198302733</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9842700080169771</v>
+        <v>0.9842700080169727</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01022581054545699</v>
+        <v>-0.01022581054545691</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9692440157321491</v>
+        <v>0.9692440157321409</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.017411469530217306</v>
+      </c>
+      <c r="C2">
+        <v>0.98258853046876882</v>
+      </c>
+      <c r="D2">
+        <v>-0.0030853279860232341</v>
+      </c>
+      <c r="E2">
+        <v>0.0012240958232229598</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999999797229</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.05034793348582093</v>
+      </c>
+      <c r="C3">
+        <v>0.94965206651211642</v>
+      </c>
+      <c r="D3">
+        <v>-0.1835857550529077</v>
+      </c>
+      <c r="E3">
+        <v>-0.0069908637689642169</v>
+      </c>
+      <c r="F3">
+        <v>0.99999999999587463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.14000830932689262</v>
+      </c>
+      <c r="C4">
+        <v>0.85999169066854431</v>
+      </c>
+      <c r="D4">
+        <v>-0.33506439523100218</v>
+      </c>
+      <c r="E4">
+        <v>-0.0019201609502547405</v>
+      </c>
+      <c r="F4">
+        <v>0.99999999999087397</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.27044025170835728</v>
+      </c>
+      <c r="C5">
+        <v>0.72955974820837644</v>
+      </c>
+      <c r="D5">
+        <v>-0.44339622607890744</v>
+      </c>
+      <c r="E5">
+        <v>0.0019634134642811901</v>
+      </c>
+      <c r="F5">
+        <v>0.99999999983346743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42916666671800408</v>
+      </c>
+      <c r="C6">
+        <v>0.57083333327802144</v>
+      </c>
+      <c r="D6">
+        <v>-0.48333333259577271</v>
+      </c>
+      <c r="E6">
+        <v>0.005076142124225652</v>
+      </c>
+      <c r="F6">
+        <v>0.99999999999205103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.60975609758652372</v>
+      </c>
+      <c r="C7">
+        <v>0.39024390240623524</v>
+      </c>
+      <c r="D7">
+        <v>-0.47981496978661831</v>
+      </c>
+      <c r="E7">
+        <v>0.0047666212625191839</v>
+      </c>
+      <c r="F7">
+        <v>0.99999999998551781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.7535986449409231</v>
+      </c>
+      <c r="C8">
+        <v>0.24640135505655197</v>
+      </c>
+      <c r="D8">
+        <v>-0.41024555397349988</v>
+      </c>
+      <c r="E8">
+        <v>0.0057101226179418381</v>
+      </c>
+      <c r="F8">
+        <v>0.99999999999495026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.88586030636194935</v>
+      </c>
+      <c r="C9">
+        <v>0.11413969363447486</v>
+      </c>
+      <c r="D9">
+        <v>-0.30068143070511677</v>
+      </c>
+      <c r="E9">
+        <v>0.0027629087045107359</v>
+      </c>
+      <c r="F9">
+        <v>0.99999999999284839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.96026064135601863</v>
+      </c>
+      <c r="C10">
+        <v>0.039739358641453282</v>
+      </c>
+      <c r="D10">
+        <v>-0.16017919140219689</v>
+      </c>
+      <c r="E10">
+        <v>-0.009202751691512006</v>
+      </c>
+      <c r="F10">
+        <v>0.99999999999494382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.98223436891809568</v>
+      </c>
+      <c r="C11">
+        <v>0.017765631080907521</v>
+      </c>
+      <c r="D11">
+        <v>0.013153399376309521</v>
+      </c>
+      <c r="E11">
+        <v>-0.0072673637136769359</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999999800648</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.95196884414604754</v>
+      </c>
+      <c r="C12">
+        <v>0.048031155852477289</v>
+      </c>
+      <c r="D12">
+        <v>0.16983989599711521</v>
+      </c>
+      <c r="E12">
+        <v>-0.018377128130350397</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999999704969</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.86206896520488796</v>
+      </c>
+      <c r="C13">
+        <v>0.13793103479297372</v>
+      </c>
+      <c r="D13">
+        <v>0.32370689631867128</v>
+      </c>
+      <c r="E13">
+        <v>-0.016366182379245191</v>
+      </c>
+      <c r="F13">
+        <v>0.99999999999572342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73510221810559828</v>
+      </c>
+      <c r="C14">
+        <v>0.26489778189212099</v>
+      </c>
+      <c r="D14">
+        <v>0.41909525817352783</v>
+      </c>
+      <c r="E14">
+        <v>-0.02549883746079009</v>
+      </c>
+      <c r="F14">
+        <v>0.99999999999543854</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.5750108084000114</v>
+      </c>
+      <c r="C15">
+        <v>0.42498919159717674</v>
+      </c>
+      <c r="D15">
+        <v>0.47985300410601117</v>
+      </c>
+      <c r="E15">
+        <v>-0.026707354773641404</v>
+      </c>
+      <c r="F15">
+        <v>0.99999999999437628</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.40200785692750707</v>
+      </c>
+      <c r="C16">
+        <v>0.5979921430702585</v>
+      </c>
+      <c r="D16">
+        <v>0.47372326440226042</v>
+      </c>
+      <c r="E16">
+        <v>-0.0317652167572961</v>
+      </c>
+      <c r="F16">
+        <v>0.99999999999553113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.25266903936533397</v>
+      </c>
+      <c r="C17">
+        <v>0.74733096063125681</v>
+      </c>
+      <c r="D17">
+        <v>0.41681494586790696</v>
+      </c>
+      <c r="E17">
+        <v>-0.028388460306113993</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999999318145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12438257772111272</v>
+      </c>
+      <c r="C18">
+        <v>0.87561742227630279</v>
+      </c>
+      <c r="D18">
+        <v>0.30916030505174918</v>
+      </c>
+      <c r="E18">
+        <v>-0.028812292123345726</v>
+      </c>
+      <c r="F18">
+        <v>0.99999999999483102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.043951065339929887</v>
+      </c>
+      <c r="C19">
+        <v>0.95604893465865159</v>
+      </c>
+      <c r="D19">
+        <v>0.15790666048666677</v>
+      </c>
+      <c r="E19">
+        <v>-0.024404352534687812</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999716294</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.015668037272097098</v>
+      </c>
+      <c r="C20">
+        <v>0.98433196272184431</v>
+      </c>
+      <c r="D20">
+        <v>-0.010227118792486532</v>
+      </c>
+      <c r="E20">
+        <v>-0.022581119821468737</v>
+      </c>
+      <c r="F20">
+        <v>0.9999999999878828</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
+    <sheet name="rho_min" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -65,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -96,11 +97,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -121,6 +148,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -2453,26 +2506,443 @@
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.017411468773449613</v>
+      </c>
+      <c r="C2">
+        <v>0.98258853122655043</v>
+      </c>
+      <c r="D2">
+        <v>-0.0030853279880509953</v>
+      </c>
+      <c r="E2">
+        <v>0.0012240958240284225</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.050347932877469394</v>
+      </c>
+      <c r="C3">
+        <v>0.94965206712253059</v>
+      </c>
+      <c r="D3">
+        <v>-0.18358575521570775</v>
+      </c>
+      <c r="E3">
+        <v>-0.0069908637751699091</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.14000830921407711</v>
+      </c>
+      <c r="C4">
+        <v>0.85999169078592297</v>
+      </c>
+      <c r="D4">
+        <v>-0.33506439540547844</v>
+      </c>
+      <c r="E4">
+        <v>-0.0019201609512601856</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.27044025157234042</v>
+      </c>
+      <c r="C5">
+        <v>0.72955974842765958</v>
+      </c>
+      <c r="D5">
+        <v>-0.4433962264150681</v>
+      </c>
+      <c r="E5">
+        <v>0.0019634134661429751</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42916666666954134</v>
+      </c>
+      <c r="C6">
+        <v>0.5708333333304586</v>
+      </c>
+      <c r="D6">
+        <v>-0.48333333331371953</v>
+      </c>
+      <c r="E6">
+        <v>0.0050761421317737816</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.609756097524634</v>
+      </c>
+      <c r="C7">
+        <v>0.39024390247536606</v>
+      </c>
+      <c r="D7">
+        <v>-0.47981497040462451</v>
+      </c>
+      <c r="E7">
+        <v>0.0047666212686953546</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.75359864521591269</v>
+      </c>
+      <c r="C8">
+        <v>0.24640135478408734</v>
+      </c>
+      <c r="D8">
+        <v>-0.41024555461472273</v>
+      </c>
+      <c r="E8">
+        <v>0.0057101226268711771</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.8858603065565851</v>
+      </c>
+      <c r="C9">
+        <v>0.11413969344341492</v>
+      </c>
+      <c r="D9">
+        <v>-0.30068143093703043</v>
+      </c>
+      <c r="E9">
+        <v>0.0027629087066444492</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.96026064215816853</v>
+      </c>
+      <c r="C10">
+        <v>0.039739357841831573</v>
+      </c>
+      <c r="D10">
+        <v>-0.1601791914892183</v>
+      </c>
+      <c r="E10">
+        <v>-0.0092027516965302817</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.9822343696617134</v>
+      </c>
+      <c r="C11">
+        <v>0.017765630338286705</v>
+      </c>
+      <c r="D11">
+        <v>0.013153399385034258</v>
+      </c>
+      <c r="E11">
+        <v>-0.0072673637185029279</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.95196884465548059</v>
+      </c>
+      <c r="C12">
+        <v>0.048031155344519356</v>
+      </c>
+      <c r="D12">
+        <v>0.16983989614866046</v>
+      </c>
+      <c r="E12">
+        <v>-0.018377128146758966</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.86206896550984313</v>
+      </c>
+      <c r="C13">
+        <v>0.13793103449015681</v>
+      </c>
+      <c r="D13">
+        <v>0.32370689654511003</v>
+      </c>
+      <c r="E13">
+        <v>-0.016366182390703605</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.73510221835615486</v>
+      </c>
+      <c r="C14">
+        <v>0.26489778164384514</v>
+      </c>
+      <c r="D14">
+        <v>0.41909525880879706</v>
+      </c>
+      <c r="E14">
+        <v>-0.025498837499458228</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.57501080847184305</v>
+      </c>
+      <c r="C15">
+        <v>0.42498919152815701</v>
+      </c>
+      <c r="D15">
+        <v>0.47985300474293163</v>
+      </c>
+      <c r="E15">
+        <v>-0.026707354809113432</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.40200785683196233</v>
+      </c>
+      <c r="C16">
+        <v>0.59799214316803762</v>
+      </c>
+      <c r="D16">
+        <v>0.47372326494552874</v>
+      </c>
+      <c r="E16">
+        <v>-0.031765216793745228</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.25266903914970712</v>
+      </c>
+      <c r="C17">
+        <v>0.74733096085029282</v>
+      </c>
+      <c r="D17">
+        <v>0.41681494661281276</v>
+      </c>
+      <c r="E17">
+        <v>-0.028388460356880824</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12438257747152788</v>
+      </c>
+      <c r="C18">
+        <v>0.87561742252847208</v>
+      </c>
+      <c r="D18">
+        <v>0.30916030533275851</v>
+      </c>
+      <c r="E18">
+        <v>-0.028812292149554417</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.043951064794409647</v>
+      </c>
+      <c r="C19">
+        <v>0.95604893520559031</v>
+      </c>
+      <c r="D19">
+        <v>0.15790666062508504</v>
+      </c>
+      <c r="E19">
+        <v>-0.024404352556095608</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.015668036307913105</v>
+      </c>
+      <c r="C20">
+        <v>0.98433196369208698</v>
+      </c>
+      <c r="D20">
+        <v>-0.010227118797022032</v>
+      </c>
+      <c r="E20">
+        <v>-0.022581119831512782</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2481,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.017411469530217306</v>
+        <v>0.017311536599734858</v>
       </c>
       <c r="C2">
-        <v>0.98258853046876882</v>
+        <v>0.98248853313942797</v>
       </c>
       <c r="D2">
-        <v>-0.0030853279860232341</v>
+        <v>-0.0030853277773492602</v>
       </c>
       <c r="E2">
-        <v>0.0012240958232229598</v>
+        <v>0.0012240957404330592</v>
       </c>
       <c r="F2">
-        <v>0.99999999999797229</v>
+        <v>0.99960017945043478</v>
       </c>
     </row>
     <row r="3">
@@ -2501,19 +2971,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.05034793348582093</v>
+        <v>0.050248000873828566</v>
       </c>
       <c r="C3">
-        <v>0.94965206651211642</v>
+        <v>0.9495520713409934</v>
       </c>
       <c r="D3">
-        <v>-0.1835857550529077</v>
+        <v>-0.18358574219595966</v>
       </c>
       <c r="E3">
-        <v>-0.0069908637689642169</v>
+        <v>-0.0069908632793837027</v>
       </c>
       <c r="F3">
-        <v>0.99999999999587463</v>
+        <v>0.99960018440076315</v>
       </c>
     </row>
     <row r="4">
@@ -2521,19 +2991,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.14000830932689262</v>
+        <v>0.13990850863573789</v>
       </c>
       <c r="C4">
-        <v>0.85999169066854431</v>
+        <v>0.85989172436934136</v>
       </c>
       <c r="D4">
-        <v>-0.33506439523100218</v>
+        <v>-0.33506431822801602</v>
       </c>
       <c r="E4">
-        <v>-0.0019201609502547405</v>
+        <v>-0.0019201605089775922</v>
       </c>
       <c r="F4">
-        <v>0.99999999999087397</v>
+        <v>0.99960050591701077</v>
       </c>
     </row>
     <row r="5">
@@ -2541,19 +3011,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.27044025170835728</v>
+        <v>0.27034422563860455</v>
       </c>
       <c r="C5">
-        <v>0.72955974820837644</v>
+        <v>0.72946122353811838</v>
       </c>
       <c r="D5">
-        <v>-0.44339622607890744</v>
+        <v>-0.44339381303994091</v>
       </c>
       <c r="E5">
-        <v>0.0019634134642811901</v>
+        <v>0.0019634027794186841</v>
       </c>
       <c r="F5">
-        <v>0.99999999983346743</v>
+        <v>0.99961093620346875</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +3031,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.42916666671800408</v>
+        <v>0.42906669180399432</v>
       </c>
       <c r="C6">
-        <v>0.57083333327802144</v>
+        <v>0.57073335230298816</v>
       </c>
       <c r="D6">
-        <v>-0.48333333259577271</v>
+        <v>-0.48333331229068727</v>
       </c>
       <c r="E6">
-        <v>0.005076142124225652</v>
+        <v>0.0050761419109822655</v>
       </c>
       <c r="F6">
-        <v>0.99999999999205103</v>
+        <v>0.99960012819632427</v>
       </c>
     </row>
     <row r="7">
@@ -2581,19 +3051,19 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.60975609758652372</v>
+        <v>0.60965613746662328</v>
       </c>
       <c r="C7">
-        <v>0.39024390240623524</v>
+        <v>0.39014396455467737</v>
       </c>
       <c r="D7">
-        <v>-0.47981496978661831</v>
+        <v>-0.47981492201634007</v>
       </c>
       <c r="E7">
-        <v>0.0047666212625191839</v>
+        <v>0.0047666207879920831</v>
       </c>
       <c r="F7">
-        <v>0.99999999998551781</v>
+        <v>0.99960024400180314</v>
       </c>
     </row>
     <row r="8">
@@ -2601,19 +3071,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.7535986449409231</v>
+        <v>0.75349866249675046</v>
       </c>
       <c r="C8">
-        <v>0.24640135505655197</v>
+        <v>0.246301406163935</v>
       </c>
       <c r="D8">
-        <v>-0.41024555397349988</v>
+        <v>-0.41024552703380407</v>
       </c>
       <c r="E8">
-        <v>0.0057101226179418381</v>
+        <v>0.0057101222429781018</v>
       </c>
       <c r="F8">
-        <v>0.99999999999495026</v>
+        <v>0.99960017729391137</v>
       </c>
     </row>
     <row r="9">
@@ -2621,19 +3091,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.88586030636194935</v>
+        <v>0.88576031052262028</v>
       </c>
       <c r="C9">
-        <v>0.11413969363447486</v>
+        <v>0.11403972216256952</v>
       </c>
       <c r="D9">
-        <v>-0.30068143070511677</v>
+        <v>-0.30068142129260306</v>
       </c>
       <c r="E9">
-        <v>0.0027629087045107359</v>
+        <v>0.0027629086180235058</v>
       </c>
       <c r="F9">
-        <v>0.99999999999284839</v>
+        <v>0.99960010535730659</v>
       </c>
     </row>
     <row r="10">
@@ -2641,19 +3111,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.96026064135601863</v>
+        <v>0.96016064494265896</v>
       </c>
       <c r="C10">
-        <v>0.039739358641453282</v>
+        <v>0.039639414358041317</v>
       </c>
       <c r="D10">
-        <v>-0.16017919140219689</v>
+        <v>-0.16017918213940369</v>
       </c>
       <c r="E10">
-        <v>-0.009202751691512006</v>
+        <v>-0.0092027511593567469</v>
       </c>
       <c r="F10">
-        <v>0.99999999999494382</v>
+        <v>0.99960015857768381</v>
       </c>
     </row>
     <row r="11">
@@ -2661,19 +3131,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.98223436891809568</v>
+        <v>0.98213437158576822</v>
       </c>
       <c r="C11">
-        <v>0.017765631080907521</v>
+        <v>0.017665697640777085</v>
       </c>
       <c r="D11">
-        <v>0.013153399376309521</v>
+        <v>0.013153398493404869</v>
       </c>
       <c r="E11">
-        <v>-0.0072673637136769359</v>
+        <v>-0.0072673632258701956</v>
       </c>
       <c r="F11">
-        <v>0.99999999999800648</v>
+        <v>0.99960017842540472</v>
       </c>
     </row>
     <row r="12">
@@ -2681,19 +3151,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.95196884414604754</v>
+        <v>0.95186884877261335</v>
       </c>
       <c r="C12">
-        <v>0.048031155852477289</v>
+        <v>0.04793122309938002</v>
       </c>
       <c r="D12">
-        <v>0.16983989599711521</v>
+        <v>0.16983988419183504</v>
       </c>
       <c r="E12">
-        <v>-0.018377128130350397</v>
+        <v>-0.018377126852998679</v>
       </c>
       <c r="F12">
-        <v>0.99999999999704969</v>
+        <v>0.99960018371524317</v>
       </c>
     </row>
     <row r="13">
@@ -2701,19 +3171,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.86206896520488796</v>
+        <v>0.86196897571668563</v>
       </c>
       <c r="C13">
-        <v>0.13793103479297372</v>
+        <v>0.13783109496528329</v>
       </c>
       <c r="D13">
-        <v>0.32370689631867128</v>
+        <v>0.32370687407399018</v>
       </c>
       <c r="E13">
-        <v>-0.016366182379245191</v>
+        <v>-0.016366181254594211</v>
       </c>
       <c r="F13">
-        <v>0.99999999999572342</v>
+        <v>0.99960018133567019</v>
       </c>
     </row>
     <row r="14">
@@ -2721,19 +3191,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.73510221810559828</v>
+        <v>0.73500223520492958</v>
       </c>
       <c r="C14">
-        <v>0.26489778189212099</v>
+        <v>0.26479782722437573</v>
       </c>
       <c r="D14">
-        <v>0.41909525817352783</v>
+        <v>0.41909523320005809</v>
       </c>
       <c r="E14">
-        <v>-0.02549883746079009</v>
+        <v>-0.025498835941356442</v>
       </c>
       <c r="F14">
-        <v>0.99999999999543854</v>
+        <v>0.99960016483364278</v>
       </c>
     </row>
     <row r="15">
@@ -2741,19 +3211,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.5750108084000114</v>
+        <v>0.57491083728734271</v>
       </c>
       <c r="C15">
-        <v>0.42498919159717674</v>
+        <v>0.42488923030763276</v>
       </c>
       <c r="D15">
-        <v>0.47985300410601117</v>
+        <v>0.47985297287256556</v>
       </c>
       <c r="E15">
-        <v>-0.026707354773641404</v>
+        <v>-0.026707353035292768</v>
       </c>
       <c r="F15">
-        <v>0.99999999999437628</v>
+        <v>0.99960017516291744</v>
       </c>
     </row>
     <row r="16">
@@ -2761,19 +3231,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.40200785692750707</v>
+        <v>0.40190790224557804</v>
       </c>
       <c r="C16">
-        <v>0.5979921430702585</v>
+        <v>0.59789217392925931</v>
       </c>
       <c r="D16">
-        <v>0.47372326440226042</v>
+        <v>0.47372322952850593</v>
       </c>
       <c r="E16">
-        <v>-0.0317652167572961</v>
+        <v>-0.031765214418878952</v>
       </c>
       <c r="F16">
-        <v>0.99999999999553113</v>
+        <v>0.9996001923192106</v>
       </c>
     </row>
     <row r="17">
@@ -2781,19 +3251,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.25266903936533397</v>
+        <v>0.25256909383206622</v>
       </c>
       <c r="C17">
-        <v>0.74733096063125681</v>
+        <v>0.74723097977762243</v>
       </c>
       <c r="D17">
-        <v>0.41681494586790696</v>
+        <v>0.41681491648469882</v>
       </c>
       <c r="E17">
-        <v>-0.028388460306113993</v>
+        <v>-0.028388458304913215</v>
       </c>
       <c r="F17">
-        <v>0.99999999999318145</v>
+        <v>0.9996001871899387</v>
       </c>
     </row>
     <row r="18">
@@ -2801,19 +3271,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.12438257772111272</v>
+        <v>0.12428262980201073</v>
       </c>
       <c r="C18">
-        <v>0.87561742227630279</v>
+        <v>0.87551743037098961</v>
       </c>
       <c r="D18">
-        <v>0.30916030505174918</v>
+        <v>0.309160287024352</v>
       </c>
       <c r="E18">
-        <v>-0.028812292123345726</v>
+        <v>-0.028812290443296695</v>
       </c>
       <c r="F18">
-        <v>0.99999999999483102</v>
+        <v>0.99960016032193522</v>
       </c>
     </row>
     <row r="19">
@@ -2821,19 +3291,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.043951065339929887</v>
+        <v>0.043851133120730412</v>
       </c>
       <c r="C19">
-        <v>0.95604893465865159</v>
+        <v>0.95594893904855582</v>
       </c>
       <c r="D19">
-        <v>0.15790666048666677</v>
+        <v>0.15790664946142419</v>
       </c>
       <c r="E19">
-        <v>-0.024404352534687812</v>
+        <v>-0.024404350830760431</v>
       </c>
       <c r="F19">
-        <v>0.99999999999716294</v>
+        <v>0.99960018430970998</v>
       </c>
     </row>
     <row r="20">
@@ -2841,19 +3311,19 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.015668037272097098</v>
+        <v>0.015568110230627688</v>
       </c>
       <c r="C20">
-        <v>0.98433196272184431</v>
+        <v>0.98423196555439085</v>
       </c>
       <c r="D20">
-        <v>-0.010227118792486532</v>
+        <v>-0.010227118036210816</v>
       </c>
       <c r="E20">
-        <v>-0.022581119821468737</v>
+        <v>-0.022581118151668283</v>
       </c>
       <c r="F20">
-        <v>0.9999999999878828</v>
+        <v>0.99960019153972879</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_hand_low.xlsx
+++ b/HWP_hand_low.xlsx
@@ -14,6 +14,7 @@
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
     <sheet name="rho_min" sheetId="7" r:id="rId10"/>
+    <sheet name="rho_max" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -66,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -123,11 +124,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -174,6 +205,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -2510,22 +2571,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2919,30 +2980,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2951,19 +3012,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.017311536599734858</v>
+        <v>0.11740910107661572</v>
       </c>
       <c r="C2">
-        <v>0.98248853313942797</v>
+        <v>0.88259089892338438</v>
       </c>
       <c r="D2">
-        <v>-0.0030853277773492602</v>
+        <v>-0.0024460142171670498</v>
       </c>
       <c r="E2">
-        <v>0.0012240957404330592</v>
+        <v>0.00097044975456231711</v>
       </c>
       <c r="F2">
-        <v>0.99960017945043478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2971,19 +3032,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.050248000873828566</v>
+        <v>0.14291919417730423</v>
       </c>
       <c r="C3">
-        <v>0.9495520713409934</v>
+        <v>0.85708080582269575</v>
       </c>
       <c r="D3">
-        <v>-0.18358574219595966</v>
+        <v>-0.14579038817613021</v>
       </c>
       <c r="E3">
-        <v>-0.0069908632793837027</v>
+        <v>-0.005551633035313322</v>
       </c>
       <c r="F3">
-        <v>0.99960018440076315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2991,19 +3052,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.13990850863573789</v>
+        <v>0.21320731585731345</v>
       </c>
       <c r="C4">
-        <v>0.85989172436934136</v>
+        <v>0.78679268414268655</v>
       </c>
       <c r="D4">
-        <v>-0.33506431822801602</v>
+        <v>-0.26693398702951754</v>
       </c>
       <c r="E4">
-        <v>-0.0019201605089775922</v>
+        <v>-0.0015297245111286801</v>
       </c>
       <c r="F4">
-        <v>0.99960050591701077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3072,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.27034422563860455</v>
+        <v>0.3164164511280857</v>
       </c>
       <c r="C5">
-        <v>0.72946122353811838</v>
+        <v>0.6835835488719143</v>
       </c>
       <c r="D5">
-        <v>-0.44339381303994091</v>
+        <v>-0.35459288206766981</v>
       </c>
       <c r="E5">
-        <v>0.0019634027794186841</v>
+        <v>0.0015701812468705552</v>
       </c>
       <c r="F5">
-        <v>0.99961093620346875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3031,19 +3092,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.42906669180399432</v>
+        <v>0.44366616885138704</v>
       </c>
       <c r="C6">
-        <v>0.57073335230298816</v>
+        <v>0.5563338311486129</v>
       </c>
       <c r="D6">
-        <v>-0.48333331229068727</v>
+        <v>-0.38439555371994871</v>
       </c>
       <c r="E6">
-        <v>0.0050761419109822655</v>
+        <v>0.0040370616529314327</v>
       </c>
       <c r="F6">
-        <v>0.99960012819632427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3051,19 +3112,19 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.60965613746662328</v>
+        <v>0.58745842508170998</v>
       </c>
       <c r="C7">
-        <v>0.39014396455467737</v>
+        <v>0.41254157491829002</v>
       </c>
       <c r="D7">
-        <v>-0.47981492201634007</v>
+        <v>-0.38233740620011769</v>
       </c>
       <c r="E7">
-        <v>0.0047666207879920831</v>
+        <v>0.003798250835471913</v>
       </c>
       <c r="F7">
-        <v>0.99960024400180314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3071,19 +3132,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.75349866249675046</v>
+        <v>0.70102127602277386</v>
       </c>
       <c r="C8">
-        <v>0.246301406163935</v>
+        <v>0.29897872397722614</v>
       </c>
       <c r="D8">
-        <v>-0.41024552703380407</v>
+        <v>-0.32519134635403596</v>
       </c>
       <c r="E8">
-        <v>0.0057101222429781018</v>
+        <v>0.0045262707761032335</v>
       </c>
       <c r="F8">
-        <v>0.99960017729391137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3091,19 +3152,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.88576031052262028</v>
+        <v>0.80698263373966461</v>
       </c>
       <c r="C9">
-        <v>0.11403972216256952</v>
+        <v>0.19301736626033536</v>
       </c>
       <c r="D9">
-        <v>-0.30068142129260306</v>
+        <v>-0.23921604792516965</v>
       </c>
       <c r="E9">
-        <v>0.0027629086180235058</v>
+        <v>0.0021981141287036815</v>
       </c>
       <c r="F9">
-        <v>0.99960010535730659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3111,19 +3172,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.96016064494265896</v>
+        <v>0.86583343756364206</v>
       </c>
       <c r="C10">
-        <v>0.039639414358041317</v>
+        <v>0.13416656243635783</v>
       </c>
       <c r="D10">
-        <v>-0.16017918213940369</v>
+        <v>-0.12731678288609377</v>
       </c>
       <c r="E10">
-        <v>-0.0092027511593567469</v>
+        <v>-0.0073147125341848293</v>
       </c>
       <c r="F10">
-        <v>0.99960015857768381</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="11">
@@ -3131,19 +3192,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.98213437158576822</v>
+        <v>0.88228289107559965</v>
       </c>
       <c r="C11">
-        <v>0.017665697640777085</v>
+        <v>0.1177171089244004</v>
       </c>
       <c r="D11">
-        <v>0.013153398493404869</v>
+        <v>0.010427128095225294</v>
       </c>
       <c r="E11">
-        <v>-0.0072673632258701956</v>
+        <v>-0.005761075915754644</v>
       </c>
       <c r="F11">
-        <v>0.99960017842540472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3151,19 +3212,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.95186884877261335</v>
+        <v>0.85842762164147413</v>
       </c>
       <c r="C12">
-        <v>0.04793122309938002</v>
+        <v>0.14157237835852585</v>
       </c>
       <c r="D12">
-        <v>0.16983988419183504</v>
+        <v>0.13468917328317698</v>
       </c>
       <c r="E12">
-        <v>-0.018377126852998679</v>
+        <v>-0.014573726512641237</v>
       </c>
       <c r="F12">
-        <v>0.99960018371524317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3171,19 +3232,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.86196897571668563</v>
+        <v>0.78756159961208505</v>
       </c>
       <c r="C13">
-        <v>0.13783109496528329</v>
+        <v>0.21243840038791484</v>
       </c>
       <c r="D13">
-        <v>0.32370687407399018</v>
+        <v>0.25709376346270968</v>
       </c>
       <c r="E13">
-        <v>-0.016366181254594211</v>
+        <v>-0.012998312576132475</v>
       </c>
       <c r="F13">
-        <v>0.99960018133567019</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="14">
@@ -3191,19 +3252,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.73500223520492958</v>
+        <v>0.68624585663153714</v>
       </c>
       <c r="C14">
-        <v>0.26479782722437573</v>
+        <v>0.31375414336846291</v>
       </c>
       <c r="D14">
-        <v>0.41909523320005809</v>
+        <v>0.33200348356056542</v>
       </c>
       <c r="E14">
-        <v>-0.025498835941356442</v>
+        <v>-0.020199949053652258</v>
       </c>
       <c r="F14">
-        <v>0.99960016483364278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3211,19 +3272,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.57491083728734271</v>
+        <v>0.55958963020258734</v>
       </c>
       <c r="C15">
-        <v>0.42488923030763276</v>
+        <v>0.44041036979741255</v>
       </c>
       <c r="D15">
-        <v>0.47985297287256556</v>
+        <v>0.38120190525563014</v>
       </c>
       <c r="E15">
-        <v>-0.026707353035292768</v>
+        <v>-0.021216694356277502</v>
       </c>
       <c r="F15">
-        <v>0.99960017516291744</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="16">
@@ -3231,19 +3292,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.40190790224557804</v>
+        <v>0.422221007417727</v>
       </c>
       <c r="C16">
-        <v>0.59789217392925931</v>
+        <v>0.57777899258227305</v>
       </c>
       <c r="D16">
-        <v>0.47372322952850593</v>
+        <v>0.3760068625814737</v>
       </c>
       <c r="E16">
-        <v>-0.031765214418878952</v>
+        <v>-0.025212904642143461</v>
       </c>
       <c r="F16">
-        <v>0.9996001923192106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3251,19 +3312,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.25256909383206622</v>
+        <v>0.30361227369827798</v>
       </c>
       <c r="C17">
-        <v>0.74723097977762243</v>
+        <v>0.69638772630172208</v>
       </c>
       <c r="D17">
-        <v>0.41681491648469882</v>
+        <v>0.33096276896531135</v>
       </c>
       <c r="E17">
-        <v>-0.028388458304913215</v>
+        <v>-0.022541234480017162</v>
       </c>
       <c r="F17">
-        <v>0.9996001871899387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3271,19 +3332,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.12428262980201073</v>
+        <v>0.20145785725907406</v>
       </c>
       <c r="C18">
-        <v>0.87551743037098961</v>
+        <v>0.79854214274092594</v>
       </c>
       <c r="D18">
-        <v>0.309160287024352</v>
+        <v>0.24572177558532818</v>
       </c>
       <c r="E18">
-        <v>-0.028812290443296695</v>
+        <v>-0.02290011836432726</v>
       </c>
       <c r="F18">
-        <v>0.99960016032193522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3291,19 +3352,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.043851133120730412</v>
+        <v>0.1383262958931758</v>
       </c>
       <c r="C19">
-        <v>0.95594893904855582</v>
+        <v>0.8616737041068242</v>
       </c>
       <c r="D19">
-        <v>0.15790664946142419</v>
+        <v>0.12522929546073336</v>
       </c>
       <c r="E19">
-        <v>-0.024404350830760431</v>
+        <v>-0.019354090984365371</v>
       </c>
       <c r="F19">
-        <v>0.99960018430970998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3311,19 +3372,436 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.015568110230627688</v>
+        <v>0.11553731031223477</v>
       </c>
       <c r="C20">
-        <v>0.98423196555439085</v>
+        <v>0.88446268968776531</v>
       </c>
       <c r="D20">
-        <v>-0.010227118036210816</v>
+        <v>-0.0081182864134879181</v>
       </c>
       <c r="E20">
-        <v>-0.022581118151668283</v>
+        <v>-0.017924891845677256</v>
       </c>
       <c r="F20">
-        <v>0.99960019153972879</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.1827304300320885e-05</v>
+      </c>
+      <c r="C2">
+        <v>0.99998817269569962</v>
+      </c>
+      <c r="D2">
+        <v>-0.0031965689258958642</v>
+      </c>
+      <c r="E2">
+        <v>0.0012682303756884966</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.03714368425529993</v>
+      </c>
+      <c r="C3">
+        <v>0.9628563157447001</v>
+      </c>
+      <c r="D3">
+        <v>-0.18897683897268816</v>
+      </c>
+      <c r="E3">
+        <v>-0.0071961538430256556</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.13400495918802599</v>
+      </c>
+      <c r="C4">
+        <v>0.86599504081197409</v>
+      </c>
+      <c r="D4">
+        <v>-0.34065204894963341</v>
+      </c>
+      <c r="E4">
+        <v>-0.00195218224117275</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.27011899708250292</v>
+      </c>
+      <c r="C5">
+        <v>0.72988100291749713</v>
+      </c>
+      <c r="D5">
+        <v>-0.44401673166256245</v>
+      </c>
+      <c r="E5">
+        <v>0.0019661611403137577</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.42750248730676937</v>
+      </c>
+      <c r="C6">
+        <v>0.57249751269323068</v>
+      </c>
+      <c r="D6">
+        <v>-0.49468891014204658</v>
+      </c>
+      <c r="E6">
+        <v>0.0051954025220590323</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.61148836508285787</v>
+      </c>
+      <c r="C7">
+        <v>0.38851163491714225</v>
+      </c>
+      <c r="D7">
+        <v>-0.4873878335614571</v>
+      </c>
+      <c r="E7">
+        <v>0.0048418522906825126</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.76288685087049535</v>
+      </c>
+      <c r="C8">
+        <v>0.23711314912950462</v>
+      </c>
+      <c r="D8">
+        <v>-0.42527104923791237</v>
+      </c>
+      <c r="E8">
+        <v>0.0059192593642780744</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.89438837203517929</v>
+      </c>
+      <c r="C9">
+        <v>0.10561162796482065</v>
+      </c>
+      <c r="D9">
+        <v>-0.30732692125478711</v>
+      </c>
+      <c r="E9">
+        <v>0.002823972946633039</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.97213603276519445</v>
+      </c>
+      <c r="C10">
+        <v>0.027863967234805654</v>
+      </c>
+      <c r="D10">
+        <v>-0.16431204642361522</v>
+      </c>
+      <c r="E10">
+        <v>-0.0094401960075261616</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99975740398089963</v>
+      </c>
+      <c r="C11">
+        <v>0.00024259601910047343</v>
+      </c>
+      <c r="D11">
+        <v>0.013631356750453081</v>
+      </c>
+      <c r="E11">
+        <v>-0.0075314391802720013</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.967706124132382</v>
+      </c>
+      <c r="C12">
+        <v>0.032293875867617998</v>
+      </c>
+      <c r="D12">
+        <v>0.17575361773284789</v>
+      </c>
+      <c r="E12">
+        <v>-0.01901700853906527</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.87253683609488475</v>
+      </c>
+      <c r="C13">
+        <v>0.12746316390511536</v>
+      </c>
+      <c r="D13">
+        <v>0.33306567131816489</v>
+      </c>
+      <c r="E13">
+        <v>-0.016839349371463273</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.74428181299466611</v>
+      </c>
+      <c r="C14">
+        <v>0.25571818700533389</v>
+      </c>
+      <c r="D14">
+        <v>0.43545888403396932</v>
+      </c>
+      <c r="E14">
+        <v>-0.026494442703164589</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.57710589309753924</v>
+      </c>
+      <c r="C15">
+        <v>0.42289410690246076</v>
+      </c>
+      <c r="D15">
+        <v>0.4932555086395326</v>
+      </c>
+      <c r="E15">
+        <v>-0.027453302887710553</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.39893424488176932</v>
+      </c>
+      <c r="C16">
+        <v>0.60106575511823068</v>
+      </c>
+      <c r="D16">
+        <v>0.48858202240452442</v>
+      </c>
+      <c r="E16">
+        <v>-0.032761561467728989</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.24528382253392447</v>
+      </c>
+      <c r="C17">
+        <v>0.75471617746607556</v>
+      </c>
+      <c r="D17">
+        <v>0.4292608961973241</v>
+      </c>
+      <c r="E17">
+        <v>-0.029236129926446055</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.11462359404122846</v>
+      </c>
+      <c r="C18">
+        <v>0.88537640595877154</v>
+      </c>
+      <c r="D18">
+        <v>0.31719265451597567</v>
+      </c>
+      <c r="E18">
+        <v>-0.029560869464695157</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.028123835270552448</v>
+      </c>
+      <c r="C19">
+        <v>0.9718761647294476</v>
+      </c>
+      <c r="D19">
+        <v>0.16338682901958501</v>
+      </c>
+      <c r="E19">
+        <v>-0.025251308352872832</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00065361875764962112</v>
+      </c>
+      <c r="C20">
+        <v>0.99934638124235042</v>
+      </c>
+      <c r="D20">
+        <v>-0.010544162154606953</v>
+      </c>
+      <c r="E20">
+        <v>-0.023281140452324864</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
